--- a/Excel/StartConfig/Release/StartSceneConfig@s.xlsx
+++ b/Excel/StartConfig/Release/StartSceneConfig@s.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\weijingHot\trunk_et_weijing\Excel\StartConfig\Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\StartConfig\Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3856321C-877C-4432-8097-B8E29A2F1466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A115813-1BE0-4692-B7F3-1FE567DBCC5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="47">
   <si>
     <t>Id</t>
   </si>
@@ -182,6 +182,10 @@
   </si>
   <si>
     <t>FubenCenter</t>
+  </si>
+  <si>
+    <t>#内测专区</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -565,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:I152"/>
+  <dimension ref="A3:I169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1202,24 +1206,21 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-    </row>
-    <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C39" s="5">
-        <v>20001</v>
-      </c>
-      <c r="D39" s="5">
-        <v>1</v>
+        <v>19901</v>
+      </c>
+      <c r="D39" s="3">
+        <v>200</v>
       </c>
       <c r="E39" s="3">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>35</v>
@@ -1228,20 +1229,19 @@
         <v>35</v>
       </c>
       <c r="H39" s="3">
-        <v>20125</v>
-      </c>
-      <c r="I39"/>
-    </row>
-    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+        <v>20135</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="5">
-        <v>20002</v>
-      </c>
-      <c r="D40" s="5">
-        <v>1</v>
+        <v>19902</v>
+      </c>
+      <c r="D40" s="3">
+        <v>200</v>
       </c>
       <c r="E40" s="3">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>13</v>
@@ -1250,19 +1250,18 @@
         <v>13</v>
       </c>
       <c r="H40" s="5">
-        <v>20126</v>
-      </c>
-      <c r="I40"/>
-    </row>
-    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+        <v>20136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C41" s="5">
-        <v>20003</v>
-      </c>
-      <c r="D41" s="5">
-        <v>1</v>
+        <v>19903</v>
+      </c>
+      <c r="D41" s="3">
+        <v>200</v>
       </c>
       <c r="E41" s="3">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>14</v>
@@ -1271,19 +1270,18 @@
         <v>15</v>
       </c>
       <c r="H41" s="3">
-        <v>20127</v>
-      </c>
-      <c r="I41"/>
-    </row>
-    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+        <v>20137</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C42" s="5">
-        <v>20004</v>
-      </c>
-      <c r="D42" s="5">
-        <v>1</v>
+        <v>19904</v>
+      </c>
+      <c r="D42" s="3">
+        <v>200</v>
       </c>
       <c r="E42" s="3">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>38</v>
@@ -1292,19 +1290,18 @@
         <v>37</v>
       </c>
       <c r="H42" s="5">
-        <v>20128</v>
-      </c>
-      <c r="I42"/>
-    </row>
-    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+        <v>20138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C43" s="5">
-        <v>20005</v>
-      </c>
-      <c r="D43" s="5">
-        <v>1</v>
+        <v>19905</v>
+      </c>
+      <c r="D43" s="3">
+        <v>200</v>
       </c>
       <c r="E43" s="3">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>17</v>
@@ -1313,17 +1310,16 @@
         <v>22</v>
       </c>
       <c r="H43" s="5"/>
-      <c r="I43"/>
-    </row>
-    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C44" s="5">
-        <v>20007</v>
-      </c>
-      <c r="D44" s="5">
-        <v>1</v>
+        <v>19906</v>
+      </c>
+      <c r="D44" s="3">
+        <v>200</v>
       </c>
       <c r="E44" s="3">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>23</v>
@@ -1331,17 +1327,16 @@
       <c r="G44" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I44"/>
     </row>
     <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="C45" s="5">
-        <v>20008</v>
-      </c>
-      <c r="D45" s="5">
-        <v>1</v>
+        <v>19907</v>
+      </c>
+      <c r="D45" s="3">
+        <v>200</v>
       </c>
       <c r="E45" s="3">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>24</v>
@@ -1353,13 +1348,13 @@
     </row>
     <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="C46" s="5">
-        <v>20009</v>
-      </c>
-      <c r="D46" s="5">
-        <v>1</v>
+        <v>19908</v>
+      </c>
+      <c r="D46" s="3">
+        <v>200</v>
       </c>
       <c r="E46" s="3">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>25</v>
@@ -1371,13 +1366,13 @@
     </row>
     <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="C47" s="5">
-        <v>20010</v>
-      </c>
-      <c r="D47" s="5">
-        <v>1</v>
+        <v>19909</v>
+      </c>
+      <c r="D47" s="3">
+        <v>200</v>
       </c>
       <c r="E47" s="3">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>27</v>
@@ -1389,13 +1384,13 @@
     </row>
     <row r="48" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="C48" s="5">
-        <v>20011</v>
+        <v>19910</v>
       </c>
       <c r="D48" s="3">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E48" s="3">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>28</v>
@@ -1405,15 +1400,15 @@
       </c>
       <c r="I48"/>
     </row>
-    <row r="49" spans="2:9" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="C49" s="5">
-        <v>20012</v>
-      </c>
-      <c r="D49" s="5">
-        <v>1</v>
+        <v>19911</v>
+      </c>
+      <c r="D49" s="3">
+        <v>200</v>
       </c>
       <c r="E49" s="3">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>29</v>
@@ -1423,15 +1418,15 @@
       </c>
       <c r="I49"/>
     </row>
-    <row r="50" spans="2:9" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="C50" s="5">
-        <v>20013</v>
-      </c>
-      <c r="D50" s="5">
-        <v>1</v>
+        <v>19912</v>
+      </c>
+      <c r="D50" s="3">
+        <v>200</v>
       </c>
       <c r="E50" s="3">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>30</v>
@@ -1441,15 +1436,15 @@
       </c>
       <c r="I50"/>
     </row>
-    <row r="51" spans="2:9" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="C51" s="5">
-        <v>20014</v>
-      </c>
-      <c r="D51" s="5">
-        <v>1</v>
+        <v>19913</v>
+      </c>
+      <c r="D51" s="3">
+        <v>200</v>
       </c>
       <c r="E51" s="3">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>31</v>
@@ -1459,15 +1454,15 @@
       </c>
       <c r="I51"/>
     </row>
-    <row r="52" spans="2:9" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="C52" s="5">
-        <v>20015</v>
-      </c>
-      <c r="D52" s="5">
-        <v>1</v>
+        <v>19914</v>
+      </c>
+      <c r="D52" s="3">
+        <v>200</v>
       </c>
       <c r="E52" s="3">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>34</v>
@@ -1477,15 +1472,15 @@
       </c>
       <c r="I52"/>
     </row>
-    <row r="53" spans="2:9" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="C53" s="5">
-        <v>20016</v>
-      </c>
-      <c r="D53" s="5">
-        <v>1</v>
+        <v>19915</v>
+      </c>
+      <c r="D53" s="3">
+        <v>200</v>
       </c>
       <c r="E53" s="3">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>45</v>
@@ -1495,112 +1490,370 @@
       </c>
       <c r="I53"/>
     </row>
-    <row r="54" spans="2:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B54"/>
-      <c r="C54"/>
-      <c r="D54"/>
-      <c r="E54"/>
-      <c r="F54"/>
-      <c r="G54"/>
-      <c r="H54"/>
+    <row r="54" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
       <c r="I54"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-    </row>
-    <row r="65" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="66" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="67" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="68" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="69" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="70" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="71" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="72" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="73" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="74" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="78" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="79" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="80" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C55" s="5">
+        <v>20001</v>
+      </c>
+      <c r="D55" s="3">
+        <v>201</v>
+      </c>
+      <c r="E55" s="3">
+        <v>201</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H55" s="3">
+        <v>20125</v>
+      </c>
+      <c r="I55"/>
+    </row>
+    <row r="56" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B56" s="1"/>
+      <c r="C56" s="5">
+        <v>20002</v>
+      </c>
+      <c r="D56" s="3">
+        <v>201</v>
+      </c>
+      <c r="E56" s="3">
+        <v>201</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H56" s="5">
+        <v>20126</v>
+      </c>
+      <c r="I56"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C57" s="5">
+        <v>20003</v>
+      </c>
+      <c r="D57" s="3">
+        <v>201</v>
+      </c>
+      <c r="E57" s="3">
+        <v>201</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H57" s="3">
+        <v>20127</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C58" s="5">
+        <v>20004</v>
+      </c>
+      <c r="D58" s="3">
+        <v>201</v>
+      </c>
+      <c r="E58" s="3">
+        <v>201</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H58" s="5">
+        <v>20128</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C59" s="5">
+        <v>20005</v>
+      </c>
+      <c r="D59" s="3">
+        <v>201</v>
+      </c>
+      <c r="E59" s="3">
+        <v>201</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H59" s="5"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C60" s="5">
+        <v>20007</v>
+      </c>
+      <c r="D60" s="3">
+        <v>201</v>
+      </c>
+      <c r="E60" s="3">
+        <v>201</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C61" s="5">
+        <v>20008</v>
+      </c>
+      <c r="D61" s="3">
+        <v>201</v>
+      </c>
+      <c r="E61" s="3">
+        <v>201</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C62" s="5">
+        <v>20009</v>
+      </c>
+      <c r="D62" s="3">
+        <v>201</v>
+      </c>
+      <c r="E62" s="3">
+        <v>201</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C63" s="5">
+        <v>20010</v>
+      </c>
+      <c r="D63" s="3">
+        <v>201</v>
+      </c>
+      <c r="E63" s="3">
+        <v>201</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C64" s="5">
+        <v>20011</v>
+      </c>
+      <c r="D64" s="3">
+        <v>201</v>
+      </c>
+      <c r="E64" s="3">
+        <v>201</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C65" s="5">
+        <v>20012</v>
+      </c>
+      <c r="D65" s="3">
+        <v>201</v>
+      </c>
+      <c r="E65" s="3">
+        <v>201</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C66" s="5">
+        <v>20013</v>
+      </c>
+      <c r="D66" s="3">
+        <v>201</v>
+      </c>
+      <c r="E66" s="3">
+        <v>201</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C67" s="5">
+        <v>20014</v>
+      </c>
+      <c r="D67" s="3">
+        <v>201</v>
+      </c>
+      <c r="E67" s="3">
+        <v>201</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C68" s="5">
+        <v>20015</v>
+      </c>
+      <c r="D68" s="3">
+        <v>201</v>
+      </c>
+      <c r="E68" s="3">
+        <v>201</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C69" s="5">
+        <v>20016</v>
+      </c>
+      <c r="D69" s="3">
+        <v>201</v>
+      </c>
+      <c r="E69" s="3">
+        <v>201</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+    </row>
+    <row r="71" spans="2:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B71"/>
+      <c r="C71"/>
+      <c r="D71"/>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71"/>
+      <c r="H71"/>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+    </row>
     <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -1673,6 +1926,23 @@
     <row r="150" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="151" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="152" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="153" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="154" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="155" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="156" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="157" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="158" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="159" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="160" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="161" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="162" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="163" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="164" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="165" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="166" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="167" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="168" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="169" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/StartConfig/Release/StartSceneConfig@s.xlsx
+++ b/Excel/StartConfig/Release/StartSceneConfig@s.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\StartConfig\Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A115813-1BE0-4692-B7F3-1FE567DBCC5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE028FAD-4742-446D-B71C-AEA46C130D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="45">
   <si>
     <t>Id</t>
   </si>
@@ -169,10 +169,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>#审核专区</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>AccountCenter</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -182,10 +178,6 @@
   </si>
   <si>
     <t>FubenCenter</t>
-  </si>
-  <si>
-    <t>#内测专区</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -569,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:I169"/>
+  <dimension ref="A3:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -647,7 +639,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -676,7 +668,7 @@
         <v>35</v>
       </c>
       <c r="H7" s="5">
-        <v>20105</v>
+        <v>20305</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -696,7 +688,7 @@
         <v>13</v>
       </c>
       <c r="H8" s="5">
-        <v>20106</v>
+        <v>20306</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -716,7 +708,7 @@
         <v>32</v>
       </c>
       <c r="H9" s="5">
-        <v>20107</v>
+        <v>20307</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -736,7 +728,7 @@
         <v>37</v>
       </c>
       <c r="H10" s="5">
-        <v>20108</v>
+        <v>20308</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -921,10 +913,10 @@
         <v>1</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -954,7 +946,7 @@
         <v>35</v>
       </c>
       <c r="H23" s="3">
-        <v>20115</v>
+        <v>20315</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -974,7 +966,7 @@
         <v>13</v>
       </c>
       <c r="H24" s="5">
-        <v>20116</v>
+        <v>20316</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -994,7 +986,7 @@
         <v>15</v>
       </c>
       <c r="H25" s="3">
-        <v>20117</v>
+        <v>20317</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -1014,7 +1006,7 @@
         <v>37</v>
       </c>
       <c r="H26" s="5">
-        <v>20118</v>
+        <v>20318</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1120,7 +1112,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C33" s="5">
         <v>112</v>
       </c>
@@ -1137,7 +1129,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C34" s="5">
         <v>113</v>
       </c>
@@ -1154,7 +1146,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C35" s="5">
         <v>114</v>
       </c>
@@ -1171,7 +1163,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C36" s="5">
         <v>115</v>
       </c>
@@ -1188,7 +1180,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C37" s="5">
         <v>116</v>
       </c>
@@ -1199,750 +1191,80 @@
         <v>2</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C39" s="5">
-        <v>19901</v>
-      </c>
-      <c r="D39" s="3">
-        <v>200</v>
-      </c>
-      <c r="E39" s="3">
-        <v>200</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H39" s="3">
-        <v>20135</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="1"/>
-      <c r="C40" s="5">
-        <v>19902</v>
-      </c>
-      <c r="D40" s="3">
-        <v>200</v>
-      </c>
-      <c r="E40" s="3">
-        <v>200</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H40" s="5">
-        <v>20136</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C41" s="5">
-        <v>19903</v>
-      </c>
-      <c r="D41" s="3">
-        <v>200</v>
-      </c>
-      <c r="E41" s="3">
-        <v>200</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H41" s="3">
-        <v>20137</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C42" s="5">
-        <v>19904</v>
-      </c>
-      <c r="D42" s="3">
-        <v>200</v>
-      </c>
-      <c r="E42" s="3">
-        <v>200</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H42" s="5">
-        <v>20138</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C43" s="5">
-        <v>19905</v>
-      </c>
-      <c r="D43" s="3">
-        <v>200</v>
-      </c>
-      <c r="E43" s="3">
-        <v>200</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H43" s="5"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C44" s="5">
-        <v>19906</v>
-      </c>
-      <c r="D44" s="3">
-        <v>200</v>
-      </c>
-      <c r="E44" s="3">
-        <v>200</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="C45" s="5">
-        <v>19907</v>
-      </c>
-      <c r="D45" s="3">
-        <v>200</v>
-      </c>
-      <c r="E45" s="3">
-        <v>200</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I45"/>
-    </row>
-    <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="C46" s="5">
-        <v>19908</v>
-      </c>
-      <c r="D46" s="3">
-        <v>200</v>
-      </c>
-      <c r="E46" s="3">
-        <v>200</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I46"/>
-    </row>
-    <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="C47" s="5">
-        <v>19909</v>
-      </c>
-      <c r="D47" s="3">
-        <v>200</v>
-      </c>
-      <c r="E47" s="3">
-        <v>200</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I47"/>
-    </row>
-    <row r="48" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="C48" s="5">
-        <v>19910</v>
-      </c>
-      <c r="D48" s="3">
-        <v>200</v>
-      </c>
-      <c r="E48" s="3">
-        <v>200</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I48"/>
-    </row>
-    <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="C49" s="5">
-        <v>19911</v>
-      </c>
-      <c r="D49" s="3">
-        <v>200</v>
-      </c>
-      <c r="E49" s="3">
-        <v>200</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I49"/>
-    </row>
-    <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="C50" s="5">
-        <v>19912</v>
-      </c>
-      <c r="D50" s="3">
-        <v>200</v>
-      </c>
-      <c r="E50" s="3">
-        <v>200</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I50"/>
-    </row>
-    <row r="51" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="C51" s="5">
-        <v>19913</v>
-      </c>
-      <c r="D51" s="3">
-        <v>200</v>
-      </c>
-      <c r="E51" s="3">
-        <v>200</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I51"/>
-    </row>
-    <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="C52" s="5">
-        <v>19914</v>
-      </c>
-      <c r="D52" s="3">
-        <v>200</v>
-      </c>
-      <c r="E52" s="3">
-        <v>200</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I52"/>
-    </row>
-    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="C53" s="5">
-        <v>19915</v>
-      </c>
-      <c r="D53" s="3">
-        <v>200</v>
-      </c>
-      <c r="E53" s="3">
-        <v>200</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I53"/>
-    </row>
-    <row r="54" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="I54"/>
-    </row>
-    <row r="55" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C55" s="5">
-        <v>20001</v>
-      </c>
-      <c r="D55" s="3">
-        <v>201</v>
-      </c>
-      <c r="E55" s="3">
-        <v>201</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H55" s="3">
-        <v>20125</v>
-      </c>
-      <c r="I55"/>
-    </row>
-    <row r="56" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B56" s="1"/>
-      <c r="C56" s="5">
-        <v>20002</v>
-      </c>
-      <c r="D56" s="3">
-        <v>201</v>
-      </c>
-      <c r="E56" s="3">
-        <v>201</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H56" s="5">
-        <v>20126</v>
-      </c>
-      <c r="I56"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C57" s="5">
-        <v>20003</v>
-      </c>
-      <c r="D57" s="3">
-        <v>201</v>
-      </c>
-      <c r="E57" s="3">
-        <v>201</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H57" s="3">
-        <v>20127</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C58" s="5">
-        <v>20004</v>
-      </c>
-      <c r="D58" s="3">
-        <v>201</v>
-      </c>
-      <c r="E58" s="3">
-        <v>201</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H58" s="5">
-        <v>20128</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C59" s="5">
-        <v>20005</v>
-      </c>
-      <c r="D59" s="3">
-        <v>201</v>
-      </c>
-      <c r="E59" s="3">
-        <v>201</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H59" s="5"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C60" s="5">
-        <v>20007</v>
-      </c>
-      <c r="D60" s="3">
-        <v>201</v>
-      </c>
-      <c r="E60" s="3">
-        <v>201</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C61" s="5">
-        <v>20008</v>
-      </c>
-      <c r="D61" s="3">
-        <v>201</v>
-      </c>
-      <c r="E61" s="3">
-        <v>201</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C62" s="5">
-        <v>20009</v>
-      </c>
-      <c r="D62" s="3">
-        <v>201</v>
-      </c>
-      <c r="E62" s="3">
-        <v>201</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C63" s="5">
-        <v>20010</v>
-      </c>
-      <c r="D63" s="3">
-        <v>201</v>
-      </c>
-      <c r="E63" s="3">
-        <v>201</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C64" s="5">
-        <v>20011</v>
-      </c>
-      <c r="D64" s="3">
-        <v>201</v>
-      </c>
-      <c r="E64" s="3">
-        <v>201</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C65" s="5">
-        <v>20012</v>
-      </c>
-      <c r="D65" s="3">
-        <v>201</v>
-      </c>
-      <c r="E65" s="3">
-        <v>201</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C66" s="5">
-        <v>20013</v>
-      </c>
-      <c r="D66" s="3">
-        <v>201</v>
-      </c>
-      <c r="E66" s="3">
-        <v>201</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C67" s="5">
-        <v>20014</v>
-      </c>
-      <c r="D67" s="3">
-        <v>201</v>
-      </c>
-      <c r="E67" s="3">
-        <v>201</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C68" s="5">
-        <v>20015</v>
-      </c>
-      <c r="D68" s="3">
-        <v>201</v>
-      </c>
-      <c r="E68" s="3">
-        <v>201</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C69" s="5">
-        <v>20016</v>
-      </c>
-      <c r="D69" s="3">
-        <v>201</v>
-      </c>
-      <c r="E69" s="3">
-        <v>201</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-    </row>
-    <row r="71" spans="2:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B71"/>
-      <c r="C71"/>
-      <c r="D71"/>
-      <c r="E71"/>
-      <c r="F71"/>
-      <c r="G71"/>
-      <c r="H71"/>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-    </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-    </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-    </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-    </row>
-    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="129" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="130" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="131" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="132" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="133" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="134" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="135" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="136" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="137" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="138" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="139" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="140" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="141" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="142" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="143" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="144" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="145" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="146" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="147" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="148" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="149" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="150" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="151" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="152" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="153" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="154" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="155" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="156" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="157" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="158" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="159" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="160" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="161" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="162" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="163" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="164" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="165" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="166" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="167" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="168" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="169" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+    </row>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1955,7 +1277,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2118,13 +1440,13 @@
         <v>202</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H9" s="5">
-        <v>20104</v>
+        <v>20304</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">

--- a/Excel/StartConfig/Release/StartSceneConfig@s.xlsx
+++ b/Excel/StartConfig/Release/StartSceneConfig@s.xlsx
@@ -8,21 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\StartConfig\Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE028FAD-4742-446D-B71C-AEA46C130D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9346A3-A347-4C9A-BFA8-3D23ABA2D9F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
     <sheet name="中心区" sheetId="3" r:id="rId2"/>
-    <sheet name="Robot区" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="39">
   <si>
     <t>Id</t>
   </si>
@@ -69,68 +68,55 @@
     <t>Gate</t>
   </si>
   <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>OuterPort</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DBCache</t>
+  </si>
+  <si>
+    <t>Chat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMail</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>Rank</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PaiMai</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Team</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Friend</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>Gate1</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Map</t>
-  </si>
-  <si>
-    <t>Robot</t>
-  </si>
-  <si>
-    <t>Robot01</t>
-  </si>
-  <si>
-    <t>OuterPort</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DBCache</t>
-  </si>
-  <si>
-    <t>Chat</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>EMail</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReCharge</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Activity</t>
-  </si>
-  <si>
-    <t>Rank</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PaiMai</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Team</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Friend</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gate1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -158,14 +144,6 @@
   </si>
   <si>
     <t>#1区</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>#2区</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>#每个区100</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -239,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -253,9 +231,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -561,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:H46"/>
+  <dimension ref="A3:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -614,7 +589,7 @@
         <v>9</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -634,12 +609,12 @@
         <v>12</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -650,7 +625,7 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
@@ -659,16 +634,16 @@
         <v>1</v>
       </c>
       <c r="E7" s="5">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H7" s="5">
-        <v>20305</v>
+        <v>20205</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -679,7 +654,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="5">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>13</v>
@@ -688,7 +663,7 @@
         <v>13</v>
       </c>
       <c r="H8" s="5">
-        <v>20306</v>
+        <v>20206</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -699,16 +674,16 @@
         <v>1</v>
       </c>
       <c r="E9" s="5">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H9" s="5">
-        <v>20307</v>
+        <v>20207</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -718,17 +693,17 @@
       <c r="D10" s="3">
         <v>1</v>
       </c>
-      <c r="E10" s="3">
-        <v>1</v>
+      <c r="E10" s="5">
+        <v>200</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H10" s="5">
-        <v>20308</v>
+        <v>20208</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -739,13 +714,13 @@
         <v>1</v>
       </c>
       <c r="E11" s="5">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H11" s="5"/>
     </row>
@@ -756,14 +731,14 @@
       <c r="D12" s="5">
         <v>1</v>
       </c>
-      <c r="E12" s="3">
-        <v>1</v>
+      <c r="E12" s="5">
+        <v>200</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -773,14 +748,14 @@
       <c r="D13" s="5">
         <v>1</v>
       </c>
-      <c r="E13" s="3">
-        <v>1</v>
+      <c r="E13" s="5">
+        <v>200</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -790,14 +765,14 @@
       <c r="D14" s="5">
         <v>1</v>
       </c>
-      <c r="E14" s="3">
-        <v>1</v>
+      <c r="E14" s="5">
+        <v>200</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -807,14 +782,14 @@
       <c r="D15" s="5">
         <v>1</v>
       </c>
-      <c r="E15" s="3">
-        <v>1</v>
+      <c r="E15" s="5">
+        <v>200</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -824,446 +799,132 @@
       <c r="D16" s="5">
         <v>1</v>
       </c>
-      <c r="E16" s="3">
-        <v>1</v>
+      <c r="E16" s="5">
+        <v>200</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C17" s="5">
         <v>12</v>
       </c>
       <c r="D17" s="5">
         <v>1</v>
       </c>
-      <c r="E17" s="3">
-        <v>1</v>
+      <c r="E17" s="5">
+        <v>200</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C18" s="5">
         <v>13</v>
       </c>
       <c r="D18" s="5">
         <v>1</v>
       </c>
-      <c r="E18" s="3">
-        <v>1</v>
+      <c r="E18" s="5">
+        <v>200</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C19" s="5">
         <v>14</v>
       </c>
       <c r="D19" s="5">
         <v>1</v>
       </c>
-      <c r="E19" s="3">
-        <v>1</v>
+      <c r="E19" s="5">
+        <v>200</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C20" s="5">
         <v>15</v>
       </c>
       <c r="D20" s="3">
         <v>1</v>
       </c>
-      <c r="E20" s="3">
-        <v>1</v>
+      <c r="E20" s="5">
+        <v>200</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C21" s="5">
         <v>16</v>
       </c>
       <c r="D21" s="3">
         <v>1</v>
       </c>
-      <c r="E21" s="3">
-        <v>1</v>
+      <c r="E21" s="5">
+        <v>200</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="5">
-        <v>101</v>
-      </c>
-      <c r="D23" s="5">
-        <v>1</v>
-      </c>
-      <c r="E23" s="3">
-        <v>2</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H23" s="3">
-        <v>20315</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C24" s="5">
-        <v>102</v>
-      </c>
-      <c r="D24" s="5">
-        <v>1</v>
-      </c>
-      <c r="E24" s="5">
-        <v>2</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="5">
-        <v>20316</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C25" s="5">
-        <v>103</v>
-      </c>
-      <c r="D25" s="5">
-        <v>1</v>
-      </c>
-      <c r="E25" s="5">
-        <v>2</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" s="3">
-        <v>20317</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C26" s="5">
-        <v>104</v>
-      </c>
-      <c r="D26" s="5">
-        <v>1</v>
-      </c>
-      <c r="E26" s="3">
-        <v>2</v>
-      </c>
-      <c r="F26" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H26" s="5">
-        <v>20318</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C27" s="5">
-        <v>105</v>
-      </c>
-      <c r="D27" s="3">
-        <v>1</v>
-      </c>
-      <c r="E27" s="5">
-        <v>2</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H27" s="5"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C28" s="5">
-        <v>107</v>
-      </c>
-      <c r="D28" s="5">
-        <v>1</v>
-      </c>
-      <c r="E28" s="3">
-        <v>2</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C29" s="5">
-        <v>108</v>
-      </c>
-      <c r="D29" s="5">
-        <v>1</v>
-      </c>
-      <c r="E29" s="3">
-        <v>2</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C30" s="5">
-        <v>109</v>
-      </c>
-      <c r="D30" s="5">
-        <v>1</v>
-      </c>
-      <c r="E30" s="3">
-        <v>2</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C31" s="3">
-        <v>110</v>
-      </c>
-      <c r="D31" s="3">
-        <v>1</v>
-      </c>
-      <c r="E31" s="3">
-        <v>2</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C32" s="5">
-        <v>111</v>
-      </c>
-      <c r="D32" s="5">
-        <v>1</v>
-      </c>
-      <c r="E32" s="3">
-        <v>2</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C33" s="5">
-        <v>112</v>
-      </c>
-      <c r="D33" s="5">
-        <v>1</v>
-      </c>
-      <c r="E33" s="3">
-        <v>2</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C34" s="5">
-        <v>113</v>
-      </c>
-      <c r="D34" s="5">
-        <v>1</v>
-      </c>
-      <c r="E34" s="3">
-        <v>2</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C35" s="5">
-        <v>114</v>
-      </c>
-      <c r="D35" s="5">
-        <v>1</v>
-      </c>
-      <c r="E35" s="3">
-        <v>2</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C36" s="5">
-        <v>115</v>
-      </c>
-      <c r="D36" s="5">
-        <v>1</v>
-      </c>
-      <c r="E36" s="3">
-        <v>2</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C37" s="5">
-        <v>116</v>
-      </c>
-      <c r="D37" s="5">
-        <v>1</v>
-      </c>
-      <c r="E37" s="3">
-        <v>2</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-    </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-    </row>
-    <row r="40" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-    </row>
-    <row r="41" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-    </row>
-    <row r="42" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-    </row>
-    <row r="43" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-    </row>
-    <row r="44" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-    </row>
-    <row r="45" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-    </row>
-    <row r="46" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1274,10 +935,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E58E4FE9-40EC-416B-98D4-974131A9BB4C}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1386,10 +1047,10 @@
         <v>202</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H6" s="5"/>
     </row>
@@ -1404,10 +1065,10 @@
         <v>202</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H7" s="5"/>
     </row>
@@ -1422,10 +1083,10 @@
         <v>202</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H8" s="5"/>
     </row>
@@ -1440,30 +1101,13 @@
         <v>202</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H9" s="5">
-        <v>20304</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C10" s="5">
-        <v>20205</v>
-      </c>
-      <c r="D10" s="5">
-        <v>1</v>
-      </c>
-      <c r="E10" s="5">
-        <v>202</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>26</v>
+        <v>20204</v>
       </c>
     </row>
   </sheetData>
@@ -1471,107 +1115,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="C3:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.375" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.125" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C6" s="5">
-        <v>20301</v>
-      </c>
-      <c r="D6" s="5">
-        <v>203</v>
-      </c>
-      <c r="E6" s="5">
-        <v>203</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="5"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
 </file>